--- a/output/SUL_12839769000187.xlsx
+++ b/output/SUL_12839769000187.xlsx
@@ -1692,10 +1692,10 @@
         <v>44165</v>
       </c>
       <c r="B119">
-        <v>1.35403139</v>
+        <v>1.35241187</v>
       </c>
       <c r="C119">
-        <v>0.004294397732744981</v>
+        <v>0.003603466052765958</v>
       </c>
     </row>
   </sheetData>

--- a/output/SUL_12839769000187.xlsx
+++ b/output/SUL_12839769000187.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SUL AMÉRICA EVOLUTION FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1316 +383,962 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40602</v>
       </c>
       <c r="B2">
-        <v>-0.001119639999999977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40633</v>
       </c>
       <c r="B3">
-        <v>0.00306558999999984</v>
-      </c>
-      <c r="C3">
         <v>0.004189921203376024</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40663</v>
       </c>
       <c r="B4">
-        <v>0.01107095000000013</v>
-      </c>
-      <c r="C4">
         <v>0.00798089385161771</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40694</v>
       </c>
       <c r="B5">
-        <v>0.03051502999999989</v>
-      </c>
-      <c r="C5">
         <v>0.01923117264915963</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40724</v>
       </c>
       <c r="B6">
-        <v>0.02621900999999993</v>
-      </c>
-      <c r="C6">
         <v>-0.004168808678122748</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40755</v>
       </c>
       <c r="B7">
-        <v>0.03893415</v>
-      </c>
-      <c r="C7">
         <v>0.01239027914713842</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40786</v>
       </c>
       <c r="B8">
-        <v>0.08487468999999992</v>
-      </c>
-      <c r="C8">
         <v>0.04421891416313528</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40816</v>
       </c>
       <c r="B9">
-        <v>0.09791171999999992</v>
-      </c>
-      <c r="C9">
         <v>0.01201708374263943</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40847</v>
       </c>
       <c r="B10">
-        <v>0.1238065799999999</v>
-      </c>
-      <c r="C10">
         <v>0.02358555749819291</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40877</v>
       </c>
       <c r="B11">
-        <v>0.1345257200000001</v>
-      </c>
-      <c r="C11">
         <v>0.009538242781956363</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40908</v>
       </c>
       <c r="B12">
-        <v>0.1481859699999999</v>
-      </c>
-      <c r="C12">
         <v>0.01204049389025741</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40939</v>
       </c>
       <c r="B13">
-        <v>0.1634940200000001</v>
-      </c>
-      <c r="C13">
         <v>0.01333237855188241</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40968</v>
       </c>
       <c r="B14">
-        <v>0.17223397</v>
-      </c>
-      <c r="C14">
         <v>0.007511813425564284</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40999</v>
       </c>
       <c r="B15">
-        <v>0.19249636</v>
-      </c>
-      <c r="C15">
         <v>0.01728527795521928</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41029</v>
       </c>
       <c r="B16">
-        <v>0.20719153</v>
-      </c>
-      <c r="C16">
         <v>0.01232303132564705</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41060</v>
       </c>
       <c r="B17">
-        <v>0.2208105599999999</v>
-      </c>
-      <c r="C17">
         <v>0.01128158180500138</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41090</v>
       </c>
       <c r="B18">
-        <v>0.22366872</v>
-      </c>
-      <c r="C18">
         <v>0.00234119862134885</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41121</v>
       </c>
       <c r="B19">
-        <v>0.23276162</v>
-      </c>
-      <c r="C19">
         <v>0.007430851055831411</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41152</v>
       </c>
       <c r="B20">
-        <v>0.25421502</v>
-      </c>
-      <c r="C20">
         <v>0.01740271570102903</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41182</v>
       </c>
       <c r="B21">
-        <v>0.26515358</v>
-      </c>
-      <c r="C21">
         <v>0.008721439167583833</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41213</v>
       </c>
       <c r="B22">
-        <v>0.2705818600000001</v>
-      </c>
-      <c r="C22">
         <v>0.004290609524260303</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41243</v>
       </c>
       <c r="B23">
-        <v>0.2716014</v>
-      </c>
-      <c r="C23">
         <v>0.0008024197669562749</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41274</v>
       </c>
       <c r="B24">
-        <v>0.2858767800000002</v>
-      </c>
-      <c r="C24">
         <v>0.01122630094619281</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41305</v>
       </c>
       <c r="B25">
-        <v>0.29227753</v>
-      </c>
-      <c r="C25">
         <v>0.004977732003217161</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41333</v>
       </c>
       <c r="B26">
-        <v>0.2873059</v>
-      </c>
-      <c r="C26">
         <v>-0.003847184435683881</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41364</v>
       </c>
       <c r="B27">
-        <v>0.2796668900000001</v>
-      </c>
-      <c r="C27">
         <v>-0.005934106260213623</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41394</v>
       </c>
       <c r="B28">
-        <v>0.2966435300000001</v>
-      </c>
-      <c r="C28">
         <v>0.01326645249061653</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41425</v>
       </c>
       <c r="B29">
-        <v>0.2848303400000001</v>
-      </c>
-      <c r="C29">
         <v>-0.009110591867912965</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41455</v>
       </c>
       <c r="B30">
-        <v>0.25013745</v>
-      </c>
-      <c r="C30">
         <v>-0.02700192307102589</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41486</v>
       </c>
       <c r="B31">
-        <v>0.2622721699999999</v>
-      </c>
-      <c r="C31">
         <v>0.009706708650316864</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41517</v>
       </c>
       <c r="B32">
-        <v>0.26186368</v>
-      </c>
-      <c r="C32">
         <v>-0.0003236148349843315</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41547</v>
       </c>
       <c r="B33">
-        <v>0.2988395000000001</v>
-      </c>
-      <c r="C33">
         <v>0.02930254716579217</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41578</v>
       </c>
       <c r="B34">
-        <v>0.33516005</v>
-      </c>
-      <c r="C34">
         <v>0.027963847727144</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41608</v>
       </c>
       <c r="B35">
-        <v>0.34872652</v>
-      </c>
-      <c r="C35">
         <v>0.01016093164261478</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41639</v>
       </c>
       <c r="B36">
-        <v>0.35589486</v>
-      </c>
-      <c r="C36">
         <v>0.005314895120472674</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41670</v>
       </c>
       <c r="B37">
-        <v>0.3386987100000001</v>
-      </c>
-      <c r="C37">
         <v>-0.01268250991083475</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41698</v>
       </c>
       <c r="B38">
-        <v>0.34617282</v>
-      </c>
-      <c r="C38">
         <v>0.005583115860326782</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41729</v>
       </c>
       <c r="B39">
-        <v>0.3866378799999999</v>
-      </c>
-      <c r="C39">
         <v>0.03005933517510773</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41759</v>
       </c>
       <c r="B40">
-        <v>0.40544136</v>
-      </c>
-      <c r="C40">
         <v>0.01356048343349747</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41790</v>
       </c>
       <c r="B41">
-        <v>0.4308019399999998</v>
-      </c>
-      <c r="C41">
         <v>0.01804456644139174</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41820</v>
       </c>
       <c r="B42">
-        <v>0.4174876599999999</v>
-      </c>
-      <c r="C42">
         <v>-0.009305466834913512</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41851</v>
       </c>
       <c r="B43">
-        <v>0.45127589</v>
-      </c>
-      <c r="C43">
         <v>0.02383670133678639</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41882</v>
       </c>
       <c r="B44">
-        <v>0.48206411</v>
-      </c>
-      <c r="C44">
         <v>0.02121458794440523</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41912</v>
       </c>
       <c r="B45">
-        <v>0.5018637099999999</v>
-      </c>
-      <c r="C45">
         <v>0.01335947606207122</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41943</v>
       </c>
       <c r="B46">
-        <v>0.5289746799999999</v>
-      </c>
-      <c r="C46">
         <v>0.0180515514287245</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41973</v>
       </c>
       <c r="B47">
-        <v>0.52551894</v>
-      </c>
-      <c r="C47">
         <v>-0.002260168232478432</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42004</v>
       </c>
       <c r="B48">
-        <v>0.5036532599999999</v>
-      </c>
-      <c r="C48">
         <v>-0.01433327337122414</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42035</v>
       </c>
       <c r="B49">
-        <v>0.52234728</v>
-      </c>
-      <c r="C49">
         <v>0.012432400804957</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42063</v>
       </c>
       <c r="B50">
-        <v>0.5141680799999999</v>
-      </c>
-      <c r="C50">
         <v>-0.005372755682921504</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42094</v>
       </c>
       <c r="B51">
-        <v>0.4755174800000002</v>
-      </c>
-      <c r="C51">
         <v>-0.02552596406602348</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42124</v>
       </c>
       <c r="B52">
-        <v>0.4959239500000001</v>
-      </c>
-      <c r="C52">
         <v>0.01383004286740142</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42155</v>
       </c>
       <c r="B53">
-        <v>0.5522143700000002</v>
-      </c>
-      <c r="C53">
         <v>0.03762919899771644</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42185</v>
       </c>
       <c r="B54">
-        <v>0.5707894200000001</v>
-      </c>
-      <c r="C54">
         <v>0.0119668071363106</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42216</v>
       </c>
       <c r="B55">
-        <v>0.58299908</v>
-      </c>
-      <c r="C55">
         <v>0.007772945147542343</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42247</v>
       </c>
       <c r="B56">
-        <v>0.610109</v>
-      </c>
-      <c r="C56">
         <v>0.01712567009198773</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42277</v>
       </c>
       <c r="B57">
-        <v>0.6055567799999999</v>
-      </c>
-      <c r="C57">
         <v>-0.002827274426762449</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42308</v>
       </c>
       <c r="B58">
-        <v>0.61185877</v>
-      </c>
-      <c r="C58">
         <v>0.003925111885485721</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42338</v>
       </c>
       <c r="B59">
-        <v>0.6324756699999998</v>
-      </c>
-      <c r="C59">
         <v>0.0127907608183313</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42369</v>
       </c>
       <c r="B60">
-        <v>0.64714797</v>
-      </c>
-      <c r="C60">
         <v>0.008987760289254521</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42400</v>
       </c>
       <c r="B61">
-        <v>0.6730627999999999</v>
-      </c>
-      <c r="C61">
         <v>0.01573315237731787</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42429</v>
       </c>
       <c r="B62">
-        <v>0.70256802</v>
-      </c>
-      <c r="C62">
         <v>0.0176354527755922</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42460</v>
       </c>
       <c r="B63">
-        <v>0.7347871099999999</v>
-      </c>
-      <c r="C63">
         <v>0.0189238195605248</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42490</v>
       </c>
       <c r="B64">
-        <v>0.7547303500000002</v>
-      </c>
-      <c r="C64">
         <v>0.01149607342886028</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42521</v>
       </c>
       <c r="B65">
-        <v>0.7692487100000001</v>
-      </c>
-      <c r="C65">
         <v>0.008273841049138975</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42551</v>
       </c>
       <c r="B66">
-        <v>0.7880116699999999</v>
-      </c>
-      <c r="C66">
         <v>0.01060504376459304</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42582</v>
       </c>
       <c r="B67">
-        <v>0.8039154199999998</v>
-      </c>
-      <c r="C67">
         <v>0.008894656711049276</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42613</v>
       </c>
       <c r="B68">
-        <v>0.8314160099999999</v>
-      </c>
-      <c r="C68">
         <v>0.01524494424466982</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42643</v>
       </c>
       <c r="B69">
-        <v>0.85345972</v>
-      </c>
-      <c r="C69">
         <v>0.01203642966952123</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42674</v>
       </c>
       <c r="B70">
-        <v>0.87100932</v>
-      </c>
-      <c r="C70">
         <v>0.009468562931596924</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42704</v>
       </c>
       <c r="B71">
-        <v>0.8914636999999999</v>
-      </c>
-      <c r="C71">
         <v>0.01093227050306722</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42735</v>
       </c>
       <c r="B72">
-        <v>0.9131441599999999</v>
-      </c>
-      <c r="C72">
         <v>0.01146226596894251</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42766</v>
       </c>
       <c r="B73">
-        <v>0.9379238300000001</v>
-      </c>
-      <c r="C73">
         <v>0.01295232764895271</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42794</v>
       </c>
       <c r="B74">
-        <v>0.9619686000000001</v>
-      </c>
-      <c r="C74">
         <v>0.01240748972058414</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42825</v>
       </c>
       <c r="B75">
-        <v>0.9855875900000002</v>
-      </c>
-      <c r="C75">
         <v>0.01203841386656235</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42855</v>
       </c>
       <c r="B76">
-        <v>0.9982171799999999</v>
-      </c>
-      <c r="C76">
         <v>0.006360631010994489</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42886</v>
       </c>
       <c r="B77">
-        <v>1.01737814</v>
-      </c>
-      <c r="C77">
         <v>0.009589027755231294</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42916</v>
       </c>
       <c r="B78">
-        <v>1.03619415</v>
-      </c>
-      <c r="C78">
         <v>0.009326962371070557</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42947</v>
       </c>
       <c r="B79">
-        <v>1.06400966</v>
-      </c>
-      <c r="C79">
         <v>0.01366053919760057</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42978</v>
       </c>
       <c r="B80">
-        <v>1.08600358</v>
-      </c>
-      <c r="C80">
         <v>0.01065591912006836</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43008</v>
       </c>
       <c r="B81">
-        <v>1.09966502</v>
-      </c>
-      <c r="C81">
         <v>0.006549097101741452</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43039</v>
       </c>
       <c r="B82">
-        <v>1.11353981</v>
-      </c>
-      <c r="C82">
         <v>0.006608096943006458</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43069</v>
       </c>
       <c r="B83">
-        <v>1.12301951</v>
-      </c>
-      <c r="C83">
         <v>0.004485224245669661</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43100</v>
       </c>
       <c r="B84">
-        <v>1.13460816</v>
-      </c>
-      <c r="C84">
         <v>0.005458569714227535</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43131</v>
       </c>
       <c r="B85">
-        <v>1.14938615</v>
-      </c>
-      <c r="C85">
         <v>0.006923045773421954</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43159</v>
       </c>
       <c r="B86">
-        <v>1.16397115</v>
-      </c>
-      <c r="C86">
         <v>0.00678565831458422</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43190</v>
       </c>
       <c r="B87">
-        <v>1.18136784</v>
-      </c>
-      <c r="C87">
         <v>0.008039243037043287</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43220</v>
       </c>
       <c r="B88">
-        <v>1.1937807</v>
-      </c>
-      <c r="C88">
         <v>0.005690402036916398</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43251</v>
       </c>
       <c r="B89">
-        <v>1.19919306</v>
-      </c>
-      <c r="C89">
         <v>0.002467138123696477</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43281</v>
       </c>
       <c r="B90">
-        <v>1.20576664</v>
-      </c>
-      <c r="C90">
         <v>0.002989087279131386</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43312</v>
       </c>
       <c r="B91">
-        <v>1.21241477</v>
-      </c>
-      <c r="C91">
         <v>0.003013977036120385</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43343</v>
       </c>
       <c r="B92">
-        <v>1.22565226</v>
-      </c>
-      <c r="C92">
         <v>0.005983276815675787</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43373</v>
       </c>
       <c r="B93">
-        <v>1.23580285</v>
-      </c>
-      <c r="C93">
         <v>0.004560725941976207</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43404</v>
       </c>
       <c r="B94">
-        <v>1.25511141</v>
-      </c>
-      <c r="C94">
         <v>0.008636074508984626</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43434</v>
       </c>
       <c r="B95">
-        <v>1.26520466</v>
-      </c>
-      <c r="C95">
         <v>0.004475721223901719</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43465</v>
       </c>
       <c r="B96">
-        <v>1.27913364</v>
-      </c>
-      <c r="C96">
         <v>0.006149104425734464</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43496</v>
       </c>
       <c r="B97">
-        <v>1.29597141</v>
-      </c>
-      <c r="C97">
         <v>0.007387794074243059</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43524</v>
       </c>
       <c r="B98">
-        <v>1.30797387</v>
-      </c>
-      <c r="C98">
         <v>0.005227617359573333</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43555</v>
       </c>
       <c r="B99">
-        <v>1.31997604</v>
-      </c>
-      <c r="C99">
         <v>0.005200305842284036</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43585</v>
       </c>
       <c r="B100">
-        <v>1.33175182</v>
-      </c>
-      <c r="C100">
         <v>0.005075819662344605</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43616</v>
       </c>
       <c r="B101">
-        <v>1.34802221</v>
-      </c>
-      <c r="C101">
         <v>0.006977753747394955</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43646</v>
       </c>
       <c r="B102">
-        <v>1.3671479</v>
-      </c>
-      <c r="C102">
         <v>0.00814544680137419</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43677</v>
       </c>
       <c r="B103">
-        <v>1.37876901</v>
-      </c>
-      <c r="C103">
         <v>0.004909329915549376</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43708</v>
       </c>
       <c r="B104">
-        <v>1.37972738</v>
-      </c>
-      <c r="C104">
         <v>0.000402884851774532</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43738</v>
       </c>
       <c r="B105">
-        <v>1.396093</v>
-      </c>
-      <c r="C105">
         <v>0.006877098670016624</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43769</v>
       </c>
       <c r="B106">
-        <v>1.4087754</v>
-      </c>
-      <c r="C106">
         <v>0.005292949814552417</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43799</v>
       </c>
       <c r="B107">
-        <v>1.41247184</v>
-      </c>
-      <c r="C107">
         <v>0.001534572297608117</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43830</v>
       </c>
       <c r="B108">
-        <v>1.42070002</v>
-      </c>
-      <c r="C108">
         <v>0.003410684370931394</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43861</v>
       </c>
       <c r="B109">
-        <v>1.42701551</v>
-      </c>
-      <c r="C109">
         <v>0.002608951934490511</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43890</v>
       </c>
       <c r="B110">
-        <v>1.4263428</v>
-      </c>
-      <c r="C110">
         <v>-0.0002771758141750791</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43921</v>
       </c>
       <c r="B111">
-        <v>1.35630881</v>
-      </c>
-      <c r="C111">
         <v>-0.02886401294986007</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43951</v>
       </c>
       <c r="B112">
-        <v>1.35621647</v>
-      </c>
-      <c r="C112">
         <v>-3.918841181094201e-05</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43982</v>
       </c>
       <c r="B113">
-        <v>1.35906926</v>
-      </c>
-      <c r="C113">
         <v>0.00121075038576568</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>44012</v>
       </c>
       <c r="B114">
-        <v>1.36149083</v>
-      </c>
-      <c r="C114">
         <v>0.001026493813072848</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>44043</v>
       </c>
       <c r="B115">
-        <v>1.37345802</v>
-      </c>
-      <c r="C115">
         <v>0.005067641952266166</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>44074</v>
       </c>
       <c r="B116">
-        <v>1.36338944</v>
-      </c>
-      <c r="C116">
         <v>-0.004242156345364956</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>44104</v>
       </c>
       <c r="B117">
-        <v>1.34555612</v>
-      </c>
-      <c r="C117">
         <v>-0.007545654430951232</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>44135</v>
       </c>
       <c r="B118">
-        <v>1.34396547</v>
-      </c>
-      <c r="C118">
         <v>-0.000678154739695902</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>44165</v>
       </c>
       <c r="B119">
-        <v>1.35241187</v>
-      </c>
-      <c r="C119">
-        <v>0.003603466052765958</v>
+        <v>0.00365538661284126</v>
       </c>
     </row>
   </sheetData>
